--- a/outputs/groupings.xlsx
+++ b/outputs/groupings.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdmondMitchell\Desktop\Github\football_table\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdmondMitchell\Desktop\Github\football_table\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC11EE7E-BFE9-4BC6-BE54-DDC36CD5660B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADA02A8-09AB-4034-8944-DF610BB0A3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-285" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="groupings" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="26">
   <si>
     <t>Calz</t>
   </si>
@@ -97,11 +110,14 @@
   <si>
     <t>Player2</t>
   </si>
+  <si>
+    <t>WinPercentage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -935,21 +951,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I233"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J117" sqref="J117"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2:J233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>16</v>
       </c>
@@ -971,8 +988,11 @@
       <c r="I1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1002,8 +1022,12 @@
         <f>(C2+(D2*1.5)-E2-(F2*1.5))</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <f>(C2+D2)/H2</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1033,8 +1057,12 @@
         <f t="shared" ref="I3:I66" si="1">(C3+(D3*1.5)-E3-(F3*1.5))</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="2">(C3+D3)/H3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1064,8 +1092,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1095,8 +1127,12 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1126,8 +1162,12 @@
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1157,8 +1197,12 @@
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1188,8 +1232,12 @@
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1219,8 +1267,12 @@
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1250,8 +1302,12 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1281,8 +1337,12 @@
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1312,8 +1372,12 @@
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1343,8 +1407,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1374,8 +1442,12 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1405,8 +1477,12 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1436,8 +1512,12 @@
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1467,8 +1547,12 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1498,8 +1582,12 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1529,8 +1617,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1560,8 +1652,12 @@
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1591,8 +1687,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1622,8 +1722,12 @@
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1653,8 +1757,12 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1684,8 +1792,12 @@
         <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1715,8 +1827,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1746,8 +1862,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1777,8 +1897,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1808,8 +1932,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -1839,8 +1967,12 @@
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1870,8 +2002,12 @@
         <f t="shared" si="1"/>
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1901,8 +2037,12 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1932,8 +2072,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1963,8 +2107,12 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1994,8 +2142,12 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -2025,8 +2177,12 @@
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -2056,8 +2212,12 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -2087,8 +2247,12 @@
         <f t="shared" si="1"/>
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -2118,8 +2282,12 @@
         <f t="shared" si="1"/>
         <v>-6.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -2149,8 +2317,12 @@
         <f t="shared" si="1"/>
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -2180,8 +2352,12 @@
         <f t="shared" si="1"/>
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <f t="shared" si="2"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -2211,8 +2387,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -2242,8 +2422,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -2273,8 +2457,12 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -2304,8 +2492,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -2335,8 +2527,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -2366,8 +2562,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -2397,8 +2597,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -2428,8 +2632,12 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -2459,8 +2667,12 @@
         <f t="shared" si="1"/>
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -2490,8 +2702,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -2521,8 +2737,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -2552,8 +2772,12 @@
         <f t="shared" si="1"/>
         <v>-5.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2807,12 @@
         <f t="shared" si="1"/>
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -2614,8 +2842,12 @@
         <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -2645,8 +2877,12 @@
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -2676,8 +2912,12 @@
         <f t="shared" si="1"/>
         <v>-3.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -2707,8 +2947,12 @@
         <f t="shared" si="1"/>
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2982,12 @@
         <f t="shared" si="1"/>
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -2769,8 +3017,12 @@
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -2800,8 +3052,12 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <f t="shared" si="2"/>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -2831,8 +3087,12 @@
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -2862,8 +3122,12 @@
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -2893,8 +3157,12 @@
         <f t="shared" si="1"/>
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -2924,8 +3192,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -2955,8 +3227,12 @@
         <f t="shared" si="1"/>
         <v>-6</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <f t="shared" si="2"/>
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -2986,8 +3262,12 @@
         <f t="shared" si="1"/>
         <v>-4.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -3010,15 +3290,19 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H130" si="2">SUM(C67:G67)</f>
+        <f t="shared" ref="H67:H130" si="3">SUM(C67:G67)</f>
         <v>10</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I130" si="3">(C67+(D67*1.5)-E67-(F67*1.5))</f>
+        <f t="shared" ref="I67:I130" si="4">(C67+(D67*1.5)-E67-(F67*1.5))</f>
         <v>-4.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <f t="shared" ref="J67:J130" si="5">(C67+D67)/H67</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -3041,15 +3325,19 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -3072,15 +3360,19 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -3103,15 +3395,19 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I70">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="5"/>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -3134,15 +3430,19 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="I71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -3165,15 +3465,19 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -3196,15 +3500,19 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="I73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73">
+        <f t="shared" si="5"/>
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -3227,15 +3535,19 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="I74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -3258,15 +3570,19 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -3289,15 +3605,19 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="I76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -3320,15 +3640,19 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -3351,15 +3675,19 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -3382,15 +3710,19 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I79">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -3413,15 +3745,19 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="I80">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -3444,15 +3780,19 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="I81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -3475,15 +3815,19 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -3506,15 +3850,19 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -3537,511 +3885,579 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="I84">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="5"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="4"/>
+        <v>-3.5</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="5"/>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="5"/>
+        <v>0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>6</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>6</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="5"/>
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="I94">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95">
+        <v>8</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="4"/>
+        <v>-4.5</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="5"/>
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>6</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="5"/>
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>6</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="5"/>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99">
         <v>5</v>
       </c>
-      <c r="B85" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85">
-        <v>2</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I85">
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s">
         <v>12</v>
       </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>2</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="I86">
-        <f t="shared" si="3"/>
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I87">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88">
-        <v>7</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="I88">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" t="s">
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <v>3</v>
-      </c>
-      <c r="D89">
-        <v>4</v>
-      </c>
-      <c r="E89">
-        <v>3</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="I89">
-        <f t="shared" si="3"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>6</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90">
-        <v>6</v>
-      </c>
-      <c r="D90">
-        <v>2</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I90">
-        <f t="shared" si="3"/>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" t="s">
-        <v>2</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I91">
-        <f t="shared" si="3"/>
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I92">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93" t="s">
-        <v>4</v>
-      </c>
-      <c r="C93">
-        <v>3</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>6</v>
-      </c>
-      <c r="F93">
-        <v>2</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="I93">
-        <f t="shared" si="3"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>6</v>
-      </c>
-      <c r="B94" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94">
-        <v>4</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>2</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="I94">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95">
-        <v>2</v>
-      </c>
-      <c r="D95">
-        <v>3</v>
-      </c>
-      <c r="E95">
-        <v>8</v>
-      </c>
-      <c r="F95">
-        <v>2</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="I95">
-        <f t="shared" si="3"/>
-        <v>-4.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96">
-        <v>3</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>6</v>
-      </c>
-      <c r="F96">
-        <v>2</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="I96">
-        <f t="shared" si="3"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>2</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="I97">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98">
-        <v>6</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98">
-        <v>3</v>
-      </c>
-      <c r="F98">
-        <v>2</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="I98">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" t="s">
-        <v>11</v>
-      </c>
-      <c r="C99">
-        <v>5</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99">
-        <v>3</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="I99">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>2</v>
-      </c>
-      <c r="E100">
-        <v>3</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
       <c r="I100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -4064,15 +4480,19 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -4095,15 +4515,19 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="I102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -4126,15 +4550,19 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="I103">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="5"/>
+        <v>0.58823529411764708</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -4157,15 +4585,19 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104">
+        <f t="shared" si="5"/>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -4188,15 +4620,19 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -4219,15 +4655,19 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6.5</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -4250,15 +4690,19 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="I107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.5</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -4281,15 +4725,19 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="I108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.5</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -4312,15 +4760,19 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="I109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -4343,15 +4795,19 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="I110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.5</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110">
+        <f t="shared" si="5"/>
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -4374,15 +4830,19 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="I111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.5</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -4405,15 +4865,19 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -4436,15 +4900,19 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="I113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113">
+        <f t="shared" si="5"/>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -4467,15 +4935,19 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="I114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -4498,15 +4970,19 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="I115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7.5</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115">
+        <f t="shared" si="5"/>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -4529,15 +5005,19 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -4560,15 +5040,19 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="I117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -4591,15 +5075,19 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="I118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -4622,15 +5110,19 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="I119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -4653,15 +5145,19 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -4684,15 +5180,19 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -4715,15 +5215,19 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -4746,15 +5250,19 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="I123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.5</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -4777,15 +5285,19 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -4808,15 +5320,19 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="I125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125">
+        <f t="shared" si="5"/>
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -4839,15 +5355,19 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="I126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.5</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -4870,15 +5390,19 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I127">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -4901,15 +5425,19 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="I128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -4932,15 +5460,19 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I129">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -4963,15 +5495,19 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -4994,15 +5530,19 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H194" si="4">SUM(C131:G131)</f>
+        <f t="shared" ref="H131:H194" si="6">SUM(C131:G131)</f>
         <v>4</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I194" si="5">(C131+(D131*1.5)-E131-(F131*1.5))</f>
+        <f t="shared" ref="I131:I194" si="7">(C131+(D131*1.5)-E131-(F131*1.5))</f>
         <v>-4</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131">
+        <f t="shared" ref="J131:J194" si="8">(C131+D131)/H131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -5025,15 +5565,19 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -5056,15 +5600,19 @@
         <v>2</v>
       </c>
       <c r="H133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="I133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133">
+        <f t="shared" si="8"/>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -5087,15 +5635,19 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -5118,15 +5670,19 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -5149,15 +5705,19 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -5180,15 +5740,19 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>9</v>
       </c>
@@ -5211,15 +5775,19 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -5242,15 +5810,19 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -5273,15 +5845,19 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I140">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>9</v>
       </c>
@@ -5304,15 +5880,19 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>9</v>
       </c>
@@ -5335,15 +5915,19 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -5366,15 +5950,19 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I143">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>9</v>
       </c>
@@ -5397,15 +5985,19 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I144">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>9</v>
       </c>
@@ -5428,15 +6020,19 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -5459,15 +6055,19 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -5490,15 +6090,19 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="I147">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="8"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -5521,15 +6125,19 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148">
+        <f t="shared" si="8"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>10</v>
       </c>
@@ -5552,15 +6160,19 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -5583,15 +6195,19 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -5614,15 +6230,19 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151">
+        <f t="shared" si="8"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -5645,15 +6265,19 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="I152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152">
+        <f t="shared" si="8"/>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -5676,15 +6300,19 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="I153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J153">
+        <f t="shared" si="8"/>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>10</v>
       </c>
@@ -5707,15 +6335,19 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154">
+        <f t="shared" si="8"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -5738,15 +6370,19 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J155">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>10</v>
       </c>
@@ -5769,15 +6405,19 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -5800,15 +6440,19 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J157">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>10</v>
       </c>
@@ -5831,15 +6475,19 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -5862,15 +6510,19 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159">
+        <f t="shared" si="8"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -5893,15 +6545,19 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="I160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160">
+        <f t="shared" si="8"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -5924,15 +6580,19 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J161">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>11</v>
       </c>
@@ -5955,15 +6615,19 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="I162">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -5986,15 +6650,19 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I163">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -6017,15 +6685,19 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -6048,15 +6720,19 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="I165">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="8"/>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -6079,15 +6755,19 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I166">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -6110,15 +6790,19 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="I167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -6141,15 +6825,19 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168">
+        <f t="shared" si="8"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>11</v>
       </c>
@@ -6172,15 +6860,19 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I169">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -6203,15 +6895,19 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -6234,15 +6930,19 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J171">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -6265,15 +6965,19 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="I172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J172">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -6296,15 +7000,19 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J173">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>11</v>
       </c>
@@ -6327,15 +7035,19 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J174">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>11</v>
       </c>
@@ -6358,15 +7070,19 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="I175">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="J175">
+        <f t="shared" si="8"/>
+        <v>0.6428571428571429</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>12</v>
       </c>
@@ -6389,15 +7105,19 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I176">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>12</v>
       </c>
@@ -6420,15 +7140,19 @@
         <v>0</v>
       </c>
       <c r="H177">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J177">
+        <f t="shared" si="8"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>12</v>
       </c>
@@ -6451,15 +7175,19 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J178">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>12</v>
       </c>
@@ -6482,15 +7210,19 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.5</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J179">
+        <f t="shared" si="8"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>12</v>
       </c>
@@ -6513,15 +7245,19 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J180">
+        <f t="shared" si="8"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>12</v>
       </c>
@@ -6544,15 +7280,19 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.5</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J181">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>12</v>
       </c>
@@ -6575,15 +7315,19 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J182">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>12</v>
       </c>
@@ -6606,15 +7350,19 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="I183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7.5</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J183">
+        <f t="shared" si="8"/>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>12</v>
       </c>
@@ -6637,15 +7385,19 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J184">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>12</v>
       </c>
@@ -6668,15 +7420,19 @@
         <v>0</v>
       </c>
       <c r="H185">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J185">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>12</v>
       </c>
@@ -6699,15 +7455,19 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="I186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J186">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>12</v>
       </c>
@@ -6730,15 +7490,19 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J187">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>12</v>
       </c>
@@ -6761,15 +7525,19 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J188">
+        <f t="shared" si="8"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>12</v>
       </c>
@@ -6792,15 +7560,19 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="I189">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>13</v>
       </c>
@@ -6823,15 +7595,19 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J190">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>13</v>
       </c>
@@ -6854,15 +7630,19 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.5</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J191">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>13</v>
       </c>
@@ -6885,15 +7665,19 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J192">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>13</v>
       </c>
@@ -6916,15 +7700,19 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J193">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>13</v>
       </c>
@@ -6947,15 +7735,19 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J194">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>13</v>
       </c>
@@ -6978,15 +7770,19 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <f t="shared" ref="H195:H233" si="6">SUM(C195:G195)</f>
+        <f t="shared" ref="H195:H233" si="9">SUM(C195:G195)</f>
         <v>4</v>
       </c>
       <c r="I195">
-        <f t="shared" ref="I195:I233" si="7">(C195+(D195*1.5)-E195-(F195*1.5))</f>
+        <f t="shared" ref="I195:I233" si="10">(C195+(D195*1.5)-E195-(F195*1.5))</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J195">
+        <f t="shared" ref="J195:J233" si="11">(C195+D195)/H195</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>13</v>
       </c>
@@ -7009,15 +7805,19 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="I196">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J196">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>13</v>
       </c>
@@ -7040,15 +7840,19 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="I197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J197">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>13</v>
       </c>
@@ -7071,15 +7875,19 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I198">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>13</v>
       </c>
@@ -7102,15 +7910,19 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="I199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J199">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>13</v>
       </c>
@@ -7133,15 +7945,19 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="I200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J200">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>13</v>
       </c>
@@ -7164,15 +7980,19 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="I201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J201">
+        <f t="shared" si="11"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>13</v>
       </c>
@@ -7195,15 +8015,19 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="I202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J202">
+        <f t="shared" si="11"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>13</v>
       </c>
@@ -7226,15 +8050,19 @@
         <v>2</v>
       </c>
       <c r="H203">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="I203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J203">
+        <f t="shared" si="11"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>14</v>
       </c>
@@ -7257,15 +8085,19 @@
         <v>0</v>
       </c>
       <c r="H204">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="I204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J204">
+        <f t="shared" si="11"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>14</v>
       </c>
@@ -7288,15 +8120,19 @@
         <v>0</v>
       </c>
       <c r="H205">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="I205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J205">
+        <f t="shared" si="11"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>14</v>
       </c>
@@ -7319,15 +8155,19 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="I206">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>14</v>
       </c>
@@ -7350,15 +8190,19 @@
         <v>0</v>
       </c>
       <c r="H207">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="I207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J207">
+        <f t="shared" si="11"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>14</v>
       </c>
@@ -7381,15 +8225,19 @@
         <v>0</v>
       </c>
       <c r="H208">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="I208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J208">
+        <f t="shared" si="11"/>
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>14</v>
       </c>
@@ -7412,15 +8260,19 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="I209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J209">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>14</v>
       </c>
@@ -7443,15 +8295,19 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="I210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J210">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>14</v>
       </c>
@@ -7474,15 +8330,19 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="I211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J211">
+        <f t="shared" si="11"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>14</v>
       </c>
@@ -7505,15 +8365,19 @@
         <v>0</v>
       </c>
       <c r="H212">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="I212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J212">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>14</v>
       </c>
@@ -7536,15 +8400,19 @@
         <v>0</v>
       </c>
       <c r="H213">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I213">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>14</v>
       </c>
@@ -7567,15 +8435,19 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="I214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J214">
+        <f t="shared" si="11"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>14</v>
       </c>
@@ -7598,15 +8470,19 @@
         <v>0</v>
       </c>
       <c r="H215">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="I215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J215">
+        <f t="shared" si="11"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>14</v>
       </c>
@@ -7629,15 +8505,19 @@
         <v>0</v>
       </c>
       <c r="H216">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="I216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J216">
+        <f t="shared" si="11"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>14</v>
       </c>
@@ -7660,15 +8540,19 @@
         <v>0</v>
       </c>
       <c r="H217">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="I217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J217">
+        <f t="shared" si="11"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>14</v>
       </c>
@@ -7691,15 +8575,19 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="I218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.5</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J218">
+        <f t="shared" si="11"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>15</v>
       </c>
@@ -7722,15 +8610,19 @@
         <v>2</v>
       </c>
       <c r="H219">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="I219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J219">
+        <f t="shared" si="11"/>
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>15</v>
       </c>
@@ -7753,15 +8645,19 @@
         <v>0</v>
       </c>
       <c r="H220">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="I220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J220">
+        <f t="shared" si="11"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>15</v>
       </c>
@@ -7784,15 +8680,19 @@
         <v>0</v>
       </c>
       <c r="H221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="I221">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="J221">
+        <f t="shared" si="11"/>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>15</v>
       </c>
@@ -7815,15 +8715,19 @@
         <v>0</v>
       </c>
       <c r="H222">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="I222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J222">
+        <f t="shared" si="11"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>15</v>
       </c>
@@ -7846,15 +8750,19 @@
         <v>0</v>
       </c>
       <c r="H223">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="I223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J223">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>15</v>
       </c>
@@ -7877,15 +8785,19 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="I224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J224">
+        <f t="shared" si="11"/>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>15</v>
       </c>
@@ -7908,15 +8820,19 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="I225">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="J225">
+        <f t="shared" si="11"/>
+        <v>0.58823529411764708</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>15</v>
       </c>
@@ -7939,15 +8855,19 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="I226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J226">
+        <f t="shared" si="11"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>15</v>
       </c>
@@ -7970,15 +8890,19 @@
         <v>2</v>
       </c>
       <c r="H227">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="I227">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J227">
+        <f t="shared" si="11"/>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>15</v>
       </c>
@@ -8001,15 +8925,19 @@
         <v>0</v>
       </c>
       <c r="H228">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="I228">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J228">
+        <f t="shared" si="11"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>15</v>
       </c>
@@ -8032,15 +8960,19 @@
         <v>0</v>
       </c>
       <c r="H229">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="I229">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J229">
+        <f t="shared" si="11"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>15</v>
       </c>
@@ -8063,15 +8995,19 @@
         <v>0</v>
       </c>
       <c r="H230">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="I230">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="J230">
+        <f t="shared" si="11"/>
+        <v>0.6428571428571429</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>15</v>
       </c>
@@ -8094,15 +9030,19 @@
         <v>0</v>
       </c>
       <c r="H231">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="I231">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>15</v>
       </c>
@@ -8125,15 +9065,19 @@
         <v>2</v>
       </c>
       <c r="H232">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="I232">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J232">
+        <f t="shared" si="11"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>15</v>
       </c>
@@ -8156,12 +9100,16 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="I233">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.5</v>
+      </c>
+      <c r="J233">
+        <f t="shared" si="11"/>
+        <v>0.66666666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -8170,7 +9118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8231,11 +9179,11 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f>SUM(C2:G2)</f>
+        <f t="shared" ref="H2:H65" si="0">SUM(C2:G2)</f>
         <v>25</v>
       </c>
       <c r="I2">
-        <f>(C2+(D2*1.5)-E2-(F2*1.5))</f>
+        <f t="shared" ref="I2:I65" si="1">(C2+(D2*1.5)-E2-(F2*1.5))</f>
         <v>10</v>
       </c>
     </row>
@@ -8262,11 +9210,11 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f>SUM(C3:G3)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="I3">
-        <f>(C3+(D3*1.5)-E3-(F3*1.5))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -8293,11 +9241,11 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <f>SUM(C4:G4)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="I4">
-        <f>(C4+(D4*1.5)-E4-(F4*1.5))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -8324,11 +9272,11 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <f>SUM(C5:G5)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="I5">
-        <f>(C5+(D5*1.5)-E5-(F5*1.5))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -8355,11 +9303,11 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <f>SUM(C6:G6)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="I6">
-        <f>(C6+(D6*1.5)-E6-(F6*1.5))</f>
+        <f t="shared" si="1"/>
         <v>-4.5</v>
       </c>
     </row>
@@ -8386,11 +9334,11 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <f>SUM(C7:G7)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="I7">
-        <f>(C7+(D7*1.5)-E7-(F7*1.5))</f>
+        <f t="shared" si="1"/>
         <v>-4.5</v>
       </c>
     </row>
@@ -8417,11 +9365,11 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <f>SUM(C8:G8)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="I8">
-        <f>(C8+(D8*1.5)-E8-(F8*1.5))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -8448,11 +9396,11 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <f>SUM(C9:G9)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="I9">
-        <f>(C9+(D9*1.5)-E9-(F9*1.5))</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
     </row>
@@ -8479,11 +9427,11 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <f>SUM(C10:G10)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="I10">
-        <f>(C10+(D10*1.5)-E10-(F10*1.5))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -8510,11 +9458,11 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <f>SUM(C11:G11)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="I11">
-        <f>(C11+(D11*1.5)-E11-(F11*1.5))</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
     </row>
@@ -8541,11 +9489,11 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <f>SUM(C12:G12)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="I12">
-        <f>(C12+(D12*1.5)-E12-(F12*1.5))</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
@@ -8572,11 +9520,11 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <f>SUM(C13:G13)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="I13">
-        <f>(C13+(D13*1.5)-E13-(F13*1.5))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -8603,11 +9551,11 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <f>SUM(C14:G14)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="I14">
-        <f>(C14+(D14*1.5)-E14-(F14*1.5))</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
@@ -8634,11 +9582,11 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <f>SUM(C15:G15)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="I15">
-        <f>(C15+(D15*1.5)-E15-(F15*1.5))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -8665,11 +9613,11 @@
         <v>2</v>
       </c>
       <c r="H16">
-        <f>SUM(C16:G16)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="I16">
-        <f>(C16+(D16*1.5)-E16-(F16*1.5))</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
@@ -8696,11 +9644,11 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <f>SUM(C17:G17)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="I17">
-        <f>(C17+(D17*1.5)-E17-(F17*1.5))</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
@@ -8727,11 +9675,11 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <f>SUM(C18:G18)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="I18">
-        <f>(C18+(D18*1.5)-E18-(F18*1.5))</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
@@ -8758,11 +9706,11 @@
         <v>2</v>
       </c>
       <c r="H19">
-        <f>SUM(C19:G19)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="I19">
-        <f>(C19+(D19*1.5)-E19-(F19*1.5))</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
@@ -8789,11 +9737,11 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <f>SUM(C20:G20)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="I20">
-        <f>(C20+(D20*1.5)-E20-(F20*1.5))</f>
+        <f t="shared" si="1"/>
         <v>-4.5</v>
       </c>
     </row>
@@ -8820,11 +9768,11 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <f>SUM(C21:G21)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="I21">
-        <f>(C21+(D21*1.5)-E21-(F21*1.5))</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
@@ -8851,11 +9799,11 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <f>SUM(C22:G22)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="I22">
-        <f>(C22+(D22*1.5)-E22-(F22*1.5))</f>
+        <f t="shared" si="1"/>
         <v>-4.5</v>
       </c>
     </row>
@@ -8882,11 +9830,11 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <f>SUM(C23:G23)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="I23">
-        <f>(C23+(D23*1.5)-E23-(F23*1.5))</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
@@ -8913,11 +9861,11 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <f>SUM(C24:G24)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="I24">
-        <f>(C24+(D24*1.5)-E24-(F24*1.5))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8944,11 +9892,11 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <f>SUM(C25:G25)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="I25">
-        <f>(C25+(D25*1.5)-E25-(F25*1.5))</f>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
     </row>
@@ -8975,11 +9923,11 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <f>SUM(C26:G26)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="I26">
-        <f>(C26+(D26*1.5)-E26-(F26*1.5))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9006,11 +9954,11 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <f>SUM(C27:G27)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="I27">
-        <f>(C27+(D27*1.5)-E27-(F27*1.5))</f>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
     </row>
@@ -9037,11 +9985,11 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <f>SUM(C28:G28)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I28">
-        <f>(C28+(D28*1.5)-E28-(F28*1.5))</f>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
     </row>
@@ -9068,11 +10016,11 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <f>SUM(C29:G29)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I29">
-        <f>(C29+(D29*1.5)-E29-(F29*1.5))</f>
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
     </row>
@@ -9099,11 +10047,11 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <f>SUM(C30:G30)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I30">
-        <f>(C30+(D30*1.5)-E30-(F30*1.5))</f>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
     </row>
@@ -9130,11 +10078,11 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <f>SUM(C31:G31)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I31">
-        <f>(C31+(D31*1.5)-E31-(F31*1.5))</f>
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
     </row>
@@ -9161,11 +10109,11 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <f>SUM(C32:G32)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I32">
-        <f>(C32+(D32*1.5)-E32-(F32*1.5))</f>
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
     </row>
@@ -9192,11 +10140,11 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f>SUM(C33:G33)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I33">
-        <f>(C33+(D33*1.5)-E33-(F33*1.5))</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
     </row>
@@ -9223,11 +10171,11 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <f>SUM(C34:G34)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I34">
-        <f>(C34+(D34*1.5)-E34-(F34*1.5))</f>
+        <f t="shared" si="1"/>
         <v>-7.5</v>
       </c>
     </row>
@@ -9254,11 +10202,11 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <f>SUM(C35:G35)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I35">
-        <f>(C35+(D35*1.5)-E35-(F35*1.5))</f>
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
     </row>
@@ -9285,11 +10233,11 @@
         <v>2</v>
       </c>
       <c r="H36">
-        <f>SUM(C36:G36)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I36">
-        <f>(C36+(D36*1.5)-E36-(F36*1.5))</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -9316,11 +10264,11 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <f>SUM(C37:G37)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I37">
-        <f>(C37+(D37*1.5)-E37-(F37*1.5))</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
     </row>
@@ -9347,11 +10295,11 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <f>SUM(C38:G38)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I38">
-        <f>(C38+(D38*1.5)-E38-(F38*1.5))</f>
+        <f t="shared" si="1"/>
         <v>-7.5</v>
       </c>
     </row>
@@ -9378,11 +10326,11 @@
         <v>2</v>
       </c>
       <c r="H39">
-        <f>SUM(C39:G39)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I39">
-        <f>(C39+(D39*1.5)-E39-(F39*1.5))</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -9409,11 +10357,11 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <f>SUM(C40:G40)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I40">
-        <f>(C40+(D40*1.5)-E40-(F40*1.5))</f>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
     </row>
@@ -9440,11 +10388,11 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <f>SUM(C41:G41)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I41">
-        <f>(C41+(D41*1.5)-E41-(F41*1.5))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -9471,11 +10419,11 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <f>SUM(C42:G42)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I42">
-        <f>(C42+(D42*1.5)-E42-(F42*1.5))</f>
+        <f t="shared" si="1"/>
         <v>-4.5</v>
       </c>
     </row>
@@ -9502,11 +10450,11 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <f>SUM(C43:G43)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I43">
-        <f>(C43+(D43*1.5)-E43-(F43*1.5))</f>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
     </row>
@@ -9533,11 +10481,11 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <f>SUM(C44:G44)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I44">
-        <f>(C44+(D44*1.5)-E44-(F44*1.5))</f>
+        <f t="shared" si="1"/>
         <v>-4.5</v>
       </c>
     </row>
@@ -9564,11 +10512,11 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <f>SUM(C45:G45)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I45">
-        <f>(C45+(D45*1.5)-E45-(F45*1.5))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -9595,11 +10543,11 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <f>SUM(C46:G46)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I46">
-        <f>(C46+(D46*1.5)-E46-(F46*1.5))</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
     </row>
@@ -9626,11 +10574,11 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <f>SUM(C47:G47)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I47">
-        <f>(C47+(D47*1.5)-E47-(F47*1.5))</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
     </row>
@@ -9657,11 +10605,11 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <f>SUM(C48:G48)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I48">
-        <f>(C48+(D48*1.5)-E48-(F48*1.5))</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
@@ -9688,11 +10636,11 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <f>SUM(C49:G49)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I49">
-        <f>(C49+(D49*1.5)-E49-(F49*1.5))</f>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
     </row>
@@ -9719,11 +10667,11 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <f>SUM(C50:G50)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I50">
-        <f>(C50+(D50*1.5)-E50-(F50*1.5))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -9750,11 +10698,11 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <f>SUM(C51:G51)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I51">
-        <f>(C51+(D51*1.5)-E51-(F51*1.5))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -9781,11 +10729,11 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <f>SUM(C52:G52)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I52">
-        <f>(C52+(D52*1.5)-E52-(F52*1.5))</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
@@ -9812,11 +10760,11 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <f>SUM(C53:G53)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I53">
-        <f>(C53+(D53*1.5)-E53-(F53*1.5))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -9843,11 +10791,11 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <f>SUM(C54:G54)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I54">
-        <f>(C54+(D54*1.5)-E54-(F54*1.5))</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -9874,11 +10822,11 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <f>SUM(C55:G55)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I55">
-        <f>(C55+(D55*1.5)-E55-(F55*1.5))</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
@@ -9905,11 +10853,11 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <f>SUM(C56:G56)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I56">
-        <f>(C56+(D56*1.5)-E56-(F56*1.5))</f>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
     </row>
@@ -9936,11 +10884,11 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <f>SUM(C57:G57)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I57">
-        <f>(C57+(D57*1.5)-E57-(F57*1.5))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -9967,11 +10915,11 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <f>SUM(C58:G58)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I58">
-        <f>(C58+(D58*1.5)-E58-(F58*1.5))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -9998,11 +10946,11 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <f>SUM(C59:G59)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I59">
-        <f>(C59+(D59*1.5)-E59-(F59*1.5))</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
@@ -10029,11 +10977,11 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <f>SUM(C60:G60)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I60">
-        <f>(C60+(D60*1.5)-E60-(F60*1.5))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -10060,11 +11008,11 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <f>SUM(C61:G61)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I61">
-        <f>(C61+(D61*1.5)-E61-(F61*1.5))</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -10091,11 +11039,11 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <f>SUM(C62:G62)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I62">
-        <f>(C62+(D62*1.5)-E62-(F62*1.5))</f>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
     </row>
@@ -10122,11 +11070,11 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <f>SUM(C63:G63)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I63">
-        <f>(C63+(D63*1.5)-E63-(F63*1.5))</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
@@ -10153,11 +11101,11 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <f>SUM(C64:G64)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I64">
-        <f>(C64+(D64*1.5)-E64-(F64*1.5))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10184,11 +11132,11 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <f>SUM(C65:G65)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I65">
-        <f>(C65+(D65*1.5)-E65-(F65*1.5))</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
     </row>
@@ -10215,11 +11163,11 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <f>SUM(C66:G66)</f>
+        <f t="shared" ref="H66:H129" si="2">SUM(C66:G66)</f>
         <v>8</v>
       </c>
       <c r="I66">
-        <f>(C66+(D66*1.5)-E66-(F66*1.5))</f>
+        <f t="shared" ref="I66:I129" si="3">(C66+(D66*1.5)-E66-(F66*1.5))</f>
         <v>0</v>
       </c>
     </row>
@@ -10246,11 +11194,11 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <f>SUM(C67:G67)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I67">
-        <f>(C67+(D67*1.5)-E67-(F67*1.5))</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -10277,11 +11225,11 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <f>SUM(C68:G68)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I68">
-        <f>(C68+(D68*1.5)-E68-(F68*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-4</v>
       </c>
     </row>
@@ -10308,11 +11256,11 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <f>SUM(C69:G69)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I69">
-        <f>(C69+(D69*1.5)-E69-(F69*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-4.5</v>
       </c>
     </row>
@@ -10339,11 +11287,11 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <f>SUM(C70:G70)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I70">
-        <f>(C70+(D70*1.5)-E70-(F70*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
@@ -10370,11 +11318,11 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <f>SUM(C71:G71)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I71">
-        <f>(C71+(D71*1.5)-E71-(F71*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-4.5</v>
       </c>
     </row>
@@ -10401,11 +11349,11 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <f>SUM(C72:G72)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I72">
-        <f>(C72+(D72*1.5)-E72-(F72*1.5))</f>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
     </row>
@@ -10432,11 +11380,11 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <f>SUM(C73:G73)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I73">
-        <f>(C73+(D73*1.5)-E73-(F73*1.5))</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -10463,11 +11411,11 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <f>SUM(C74:G74)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I74">
-        <f>(C74+(D74*1.5)-E74-(F74*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
     </row>
@@ -10494,11 +11442,11 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <f>SUM(C75:G75)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I75">
-        <f>(C75+(D75*1.5)-E75-(F75*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
@@ -10525,11 +11473,11 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <f>SUM(C76:G76)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I76">
-        <f>(C76+(D76*1.5)-E76-(F76*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
     </row>
@@ -10556,11 +11504,11 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <f>SUM(C77:G77)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I77">
-        <f>(C77+(D77*1.5)-E77-(F77*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
@@ -10587,11 +11535,11 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <f>SUM(C78:G78)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I78">
-        <f>(C78+(D78*1.5)-E78-(F78*1.5))</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
@@ -10618,11 +11566,11 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <f>SUM(C79:G79)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I79">
-        <f>(C79+(D79*1.5)-E79-(F79*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-4</v>
       </c>
     </row>
@@ -10649,11 +11597,11 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <f>SUM(C80:G80)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I80">
-        <f>(C80+(D80*1.5)-E80-(F80*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
@@ -10680,11 +11628,11 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <f>SUM(C81:G81)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I81">
-        <f>(C81+(D81*1.5)-E81-(F81*1.5))</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
@@ -10711,11 +11659,11 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <f>SUM(C82:G82)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I82">
-        <f>(C82+(D82*1.5)-E82-(F82*1.5))</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
@@ -10742,11 +11690,11 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <f>SUM(C83:G83)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I83">
-        <f>(C83+(D83*1.5)-E83-(F83*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
@@ -10773,11 +11721,11 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <f>SUM(C84:G84)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I84">
-        <f>(C84+(D84*1.5)-E84-(F84*1.5))</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
@@ -10804,11 +11752,11 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <f>SUM(C85:G85)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I85">
-        <f>(C85+(D85*1.5)-E85-(F85*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-1.5</v>
       </c>
     </row>
@@ -10835,11 +11783,11 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <f>SUM(C86:G86)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I86">
-        <f>(C86+(D86*1.5)-E86-(F86*1.5))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -10866,11 +11814,11 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <f>SUM(C87:G87)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I87">
-        <f>(C87+(D87*1.5)-E87-(F87*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
@@ -10897,11 +11845,11 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <f>SUM(C88:G88)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I88">
-        <f>(C88+(D88*1.5)-E88-(F88*1.5))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -10928,11 +11876,11 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <f>SUM(C89:G89)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I89">
-        <f>(C89+(D89*1.5)-E89-(F89*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
@@ -10959,11 +11907,11 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <f>SUM(C90:G90)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I90">
-        <f>(C90+(D90*1.5)-E90-(F90*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
@@ -10990,11 +11938,11 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <f>SUM(C91:G91)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I91">
-        <f>(C91+(D91*1.5)-E91-(F91*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-1.5</v>
       </c>
     </row>
@@ -11021,11 +11969,11 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <f>SUM(C92:G92)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I92">
-        <f>(C92+(D92*1.5)-E92-(F92*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-1.5</v>
       </c>
     </row>
@@ -11052,11 +12000,11 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <f>SUM(C93:G93)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I93">
-        <f>(C93+(D93*1.5)-E93-(F93*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
@@ -11083,11 +12031,11 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <f>SUM(C94:G94)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I94">
-        <f>(C94+(D94*1.5)-E94-(F94*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
@@ -11114,11 +12062,11 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <f>SUM(C95:G95)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I95">
-        <f>(C95+(D95*1.5)-E95-(F95*1.5))</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
@@ -11145,11 +12093,11 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <f>SUM(C96:G96)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I96">
-        <f>(C96+(D96*1.5)-E96-(F96*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-1.5</v>
       </c>
     </row>
@@ -11176,11 +12124,11 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <f>SUM(C97:G97)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I97">
-        <f>(C97+(D97*1.5)-E97-(F97*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
@@ -11207,11 +12155,11 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <f>SUM(C98:G98)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I98">
-        <f>(C98+(D98*1.5)-E98-(F98*1.5))</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -11238,11 +12186,11 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <f>SUM(C99:G99)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I99">
-        <f>(C99+(D99*1.5)-E99-(F99*1.5))</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -11269,11 +12217,11 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <f>SUM(C100:G100)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I100">
-        <f>(C100+(D100*1.5)-E100-(F100*1.5))</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
@@ -11300,11 +12248,11 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <f>SUM(C101:G101)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I101">
-        <f>(C101+(D101*1.5)-E101-(F101*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
     </row>
@@ -11331,11 +12279,11 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <f>SUM(C102:G102)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I102">
-        <f>(C102+(D102*1.5)-E102-(F102*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-6.5</v>
       </c>
     </row>
@@ -11362,11 +12310,11 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <f>SUM(C103:G103)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I103">
-        <f>(C103+(D103*1.5)-E103-(F103*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
     </row>
@@ -11393,11 +12341,11 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <f>SUM(C104:G104)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I104">
-        <f>(C104+(D104*1.5)-E104-(F104*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-1.5</v>
       </c>
     </row>
@@ -11424,11 +12372,11 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <f>SUM(C105:G105)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I105">
-        <f>(C105+(D105*1.5)-E105-(F105*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-1.5</v>
       </c>
     </row>
@@ -11455,11 +12403,11 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <f>SUM(C106:G106)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I106">
-        <f>(C106+(D106*1.5)-E106-(F106*1.5))</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
@@ -11486,11 +12434,11 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <f>SUM(C107:G107)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I107">
-        <f>(C107+(D107*1.5)-E107-(F107*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-6.5</v>
       </c>
     </row>
@@ -11517,11 +12465,11 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <f>SUM(C108:G108)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I108">
-        <f>(C108+(D108*1.5)-E108-(F108*1.5))</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
@@ -11548,11 +12496,11 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <f>SUM(C109:G109)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I109">
-        <f>(C109+(D109*1.5)-E109-(F109*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-1.5</v>
       </c>
     </row>
@@ -11579,11 +12527,11 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <f>SUM(C110:G110)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I110">
-        <f>(C110+(D110*1.5)-E110-(F110*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-1.5</v>
       </c>
     </row>
@@ -11610,11 +12558,11 @@
         <v>2</v>
       </c>
       <c r="H111">
-        <f>SUM(C111:G111)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I111">
-        <f>(C111+(D111*1.5)-E111-(F111*1.5))</f>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
     </row>
@@ -11641,11 +12589,11 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <f>SUM(C112:G112)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I112">
-        <f>(C112+(D112*1.5)-E112-(F112*1.5))</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
@@ -11672,11 +12620,11 @@
         <v>2</v>
       </c>
       <c r="H113">
-        <f>SUM(C113:G113)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I113">
-        <f>(C113+(D113*1.5)-E113-(F113*1.5))</f>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
     </row>
@@ -11703,11 +12651,11 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <f>SUM(C114:G114)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I114">
-        <f>(C114+(D114*1.5)-E114-(F114*1.5))</f>
+        <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
     </row>
@@ -11734,11 +12682,11 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <f>SUM(C115:G115)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I115">
-        <f>(C115+(D115*1.5)-E115-(F115*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
@@ -11765,11 +12713,11 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <f>SUM(C116:G116)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I116">
-        <f>(C116+(D116*1.5)-E116-(F116*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-5.5</v>
       </c>
     </row>
@@ -11796,11 +12744,11 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <f>SUM(C117:G117)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I117">
-        <f>(C117+(D117*1.5)-E117-(F117*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
     </row>
@@ -11827,11 +12775,11 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <f>SUM(C118:G118)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I118">
-        <f>(C118+(D118*1.5)-E118-(F118*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-3.5</v>
       </c>
     </row>
@@ -11858,11 +12806,11 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <f>SUM(C119:G119)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I119">
-        <f>(C119+(D119*1.5)-E119-(F119*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
     </row>
@@ -11889,11 +12837,11 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <f>SUM(C120:G120)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I120">
-        <f>(C120+(D120*1.5)-E120-(F120*1.5))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11920,11 +12868,11 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <f>SUM(C121:G121)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I121">
-        <f>(C121+(D121*1.5)-E121-(F121*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-5.5</v>
       </c>
     </row>
@@ -11951,11 +12899,11 @@
         <v>1</v>
       </c>
       <c r="H122">
-        <f>SUM(C122:G122)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I122">
-        <f>(C122+(D122*1.5)-E122-(F122*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
@@ -11982,11 +12930,11 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <f>SUM(C123:G123)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I123">
-        <f>(C123+(D123*1.5)-E123-(F123*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
     </row>
@@ -12013,11 +12961,11 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <f>SUM(C124:G124)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I124">
-        <f>(C124+(D124*1.5)-E124-(F124*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
     </row>
@@ -12044,11 +12992,11 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <f>SUM(C125:G125)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I125">
-        <f>(C125+(D125*1.5)-E125-(F125*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
     </row>
@@ -12075,11 +13023,11 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <f>SUM(C126:G126)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I126">
-        <f>(C126+(D126*1.5)-E126-(F126*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-1.5</v>
       </c>
     </row>
@@ -12106,11 +13054,11 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <f>SUM(C127:G127)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I127">
-        <f>(C127+(D127*1.5)-E127-(F127*1.5))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -12137,11 +13085,11 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <f>SUM(C128:G128)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I128">
-        <f>(C128+(D128*1.5)-E128-(F128*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
@@ -12168,11 +13116,11 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <f>SUM(C129:G129)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I129">
-        <f>(C129+(D129*1.5)-E129-(F129*1.5))</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
@@ -12199,11 +13147,11 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <f>SUM(C130:G130)</f>
+        <f t="shared" ref="H130:H193" si="4">SUM(C130:G130)</f>
         <v>5</v>
       </c>
       <c r="I130">
-        <f>(C130+(D130*1.5)-E130-(F130*1.5))</f>
+        <f t="shared" ref="I130:I193" si="5">(C130+(D130*1.5)-E130-(F130*1.5))</f>
         <v>-3.5</v>
       </c>
     </row>
@@ -12230,11 +13178,11 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <f>SUM(C131:G131)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I131">
-        <f>(C131+(D131*1.5)-E131-(F131*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-1.5</v>
       </c>
     </row>
@@ -12261,11 +13209,11 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <f>SUM(C132:G132)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I132">
-        <f>(C132+(D132*1.5)-E132-(F132*1.5))</f>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
     </row>
@@ -12292,11 +13240,11 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <f>SUM(C133:G133)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I133">
-        <f>(C133+(D133*1.5)-E133-(F133*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-1.5</v>
       </c>
     </row>
@@ -12323,11 +13271,11 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <f>SUM(C134:G134)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I134">
-        <f>(C134+(D134*1.5)-E134-(F134*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-2</v>
       </c>
     </row>
@@ -12354,11 +13302,11 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <f>SUM(C135:G135)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I135">
-        <f>(C135+(D135*1.5)-E135-(F135*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
     </row>
@@ -12385,11 +13333,11 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <f>SUM(C136:G136)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I136">
-        <f>(C136+(D136*1.5)-E136-(F136*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-1.5</v>
       </c>
     </row>
@@ -12416,11 +13364,11 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <f>SUM(C137:G137)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I137">
-        <f>(C137+(D137*1.5)-E137-(F137*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
     </row>
@@ -12447,11 +13395,11 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <f>SUM(C138:G138)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I138">
-        <f>(C138+(D138*1.5)-E138-(F138*1.5))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12478,11 +13426,11 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <f>SUM(C139:G139)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I139">
-        <f>(C139+(D139*1.5)-E139-(F139*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
     </row>
@@ -12509,11 +13457,11 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <f>SUM(C140:G140)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I140">
-        <f>(C140+(D140*1.5)-E140-(F140*1.5))</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -12540,11 +13488,11 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <f>SUM(C141:G141)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I141">
-        <f>(C141+(D141*1.5)-E141-(F141*1.5))</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -12571,11 +13519,11 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <f>SUM(C142:G142)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I142">
-        <f>(C142+(D142*1.5)-E142-(F142*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-2.5</v>
       </c>
     </row>
@@ -12602,11 +13550,11 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <f>SUM(C143:G143)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I143">
-        <f>(C143+(D143*1.5)-E143-(F143*1.5))</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -12633,11 +13581,11 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <f>SUM(C144:G144)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I144">
-        <f>(C144+(D144*1.5)-E144-(F144*1.5))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12664,11 +13612,11 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <f>SUM(C145:G145)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I145">
-        <f>(C145+(D145*1.5)-E145-(F145*1.5))</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -12695,11 +13643,11 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <f>SUM(C146:G146)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I146">
-        <f>(C146+(D146*1.5)-E146-(F146*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-2</v>
       </c>
     </row>
@@ -12726,11 +13674,11 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <f>SUM(C147:G147)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I147">
-        <f>(C147+(D147*1.5)-E147-(F147*1.5))</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
     </row>
@@ -12757,11 +13705,11 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <f>SUM(C148:G148)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I148">
-        <f>(C148+(D148*1.5)-E148-(F148*1.5))</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -12788,11 +13736,11 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <f>SUM(C149:G149)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I149">
-        <f>(C149+(D149*1.5)-E149-(F149*1.5))</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -12819,11 +13767,11 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <f>SUM(C150:G150)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I150">
-        <f>(C150+(D150*1.5)-E150-(F150*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
     </row>
@@ -12850,11 +13798,11 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <f>SUM(C151:G151)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I151">
-        <f>(C151+(D151*1.5)-E151-(F151*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-2.5</v>
       </c>
     </row>
@@ -12881,11 +13829,11 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <f>SUM(C152:G152)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I152">
-        <f>(C152+(D152*1.5)-E152-(F152*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-4</v>
       </c>
     </row>
@@ -12912,11 +13860,11 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <f>SUM(C153:G153)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I153">
-        <f>(C153+(D153*1.5)-E153-(F153*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
     </row>
@@ -12943,11 +13891,11 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <f>SUM(C154:G154)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I154">
-        <f>(C154+(D154*1.5)-E154-(F154*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-2</v>
       </c>
     </row>
@@ -12974,11 +13922,11 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <f>SUM(C155:G155)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I155">
-        <f>(C155+(D155*1.5)-E155-(F155*1.5))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -13005,11 +13953,11 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <f>SUM(C156:G156)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I156">
-        <f>(C156+(D156*1.5)-E156-(F156*1.5))</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -13036,11 +13984,11 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <f>SUM(C157:G157)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I157">
-        <f>(C157+(D157*1.5)-E157-(F157*1.5))</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
     </row>
@@ -13067,11 +14015,11 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <f>SUM(C158:G158)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I158">
-        <f>(C158+(D158*1.5)-E158-(F158*1.5))</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -13098,11 +14046,11 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <f>SUM(C159:G159)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I159">
-        <f>(C159+(D159*1.5)-E159-(F159*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-4</v>
       </c>
     </row>
@@ -13129,11 +14077,11 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <f>SUM(C160:G160)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I160">
-        <f>(C160+(D160*1.5)-E160-(F160*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
     </row>
@@ -13160,11 +14108,11 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <f>SUM(C161:G161)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I161">
-        <f>(C161+(D161*1.5)-E161-(F161*1.5))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13191,11 +14139,11 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <f>SUM(C162:G162)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I162">
-        <f>(C162+(D162*1.5)-E162-(F162*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
     </row>
@@ -13222,11 +14170,11 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <f>SUM(C163:G163)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I163">
-        <f>(C163+(D163*1.5)-E163-(F163*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-2</v>
       </c>
     </row>
@@ -13253,11 +14201,11 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <f>SUM(C164:G164)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I164">
-        <f>(C164+(D164*1.5)-E164-(F164*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-1.5</v>
       </c>
     </row>
@@ -13284,11 +14232,11 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <f>SUM(C165:G165)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I165">
-        <f>(C165+(D165*1.5)-E165-(F165*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
     </row>
@@ -13315,11 +14263,11 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <f>SUM(C166:G166)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I166">
-        <f>(C166+(D166*1.5)-E166-(F166*1.5))</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -13346,11 +14294,11 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <f>SUM(C167:G167)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I167">
-        <f>(C167+(D167*1.5)-E167-(F167*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
     </row>
@@ -13377,11 +14325,11 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <f>SUM(C168:G168)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I168">
-        <f>(C168+(D168*1.5)-E168-(F168*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-1.5</v>
       </c>
     </row>
@@ -13408,11 +14356,11 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <f>SUM(C169:G169)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I169">
-        <f>(C169+(D169*1.5)-E169-(F169*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-1.5</v>
       </c>
     </row>
@@ -13439,11 +14387,11 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <f>SUM(C170:G170)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I170">
-        <f>(C170+(D170*1.5)-E170-(F170*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-2</v>
       </c>
     </row>
@@ -13470,11 +14418,11 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <f>SUM(C171:G171)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I171">
-        <f>(C171+(D171*1.5)-E171-(F171*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
     </row>
@@ -13501,11 +14449,11 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <f>SUM(C172:G172)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I172">
-        <f>(C172+(D172*1.5)-E172-(F172*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
     </row>
@@ -13532,11 +14480,11 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <f>SUM(C173:G173)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I173">
-        <f>(C173+(D173*1.5)-E173-(F173*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
     </row>
@@ -13563,11 +14511,11 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <f>SUM(C174:G174)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I174">
-        <f>(C174+(D174*1.5)-E174-(F174*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-3.5</v>
       </c>
     </row>
@@ -13594,11 +14542,11 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <f>SUM(C175:G175)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I175">
-        <f>(C175+(D175*1.5)-E175-(F175*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
     </row>
@@ -13625,11 +14573,11 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <f>SUM(C176:G176)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I176">
-        <f>(C176+(D176*1.5)-E176-(F176*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
     </row>
@@ -13656,11 +14604,11 @@
         <v>0</v>
       </c>
       <c r="H177">
-        <f>SUM(C177:G177)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I177">
-        <f>(C177+(D177*1.5)-E177-(F177*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
     </row>
@@ -13687,11 +14635,11 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <f>SUM(C178:G178)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I178">
-        <f>(C178+(D178*1.5)-E178-(F178*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
     </row>
@@ -13718,11 +14666,11 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <f>SUM(C179:G179)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I179">
-        <f>(C179+(D179*1.5)-E179-(F179*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
     </row>
@@ -13749,11 +14697,11 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <f>SUM(C180:G180)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I180">
-        <f>(C180+(D180*1.5)-E180-(F180*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
     </row>
@@ -13780,11 +14728,11 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <f>SUM(C181:G181)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I181">
-        <f>(C181+(D181*1.5)-E181-(F181*1.5))</f>
+        <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
     </row>
@@ -13811,11 +14759,11 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <f>SUM(C182:G182)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I182">
-        <f>(C182+(D182*1.5)-E182-(F182*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
     </row>
@@ -13842,11 +14790,11 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <f>SUM(C183:G183)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I183">
-        <f>(C183+(D183*1.5)-E183-(F183*1.5))</f>
+        <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
     </row>
@@ -13873,11 +14821,11 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <f>SUM(C184:G184)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I184">
-        <f>(C184+(D184*1.5)-E184-(F184*1.5))</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -13904,11 +14852,11 @@
         <v>0</v>
       </c>
       <c r="H185">
-        <f>SUM(C185:G185)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I185">
-        <f>(C185+(D185*1.5)-E185-(F185*1.5))</f>
+        <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
     </row>
@@ -13935,11 +14883,11 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <f>SUM(C186:G186)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I186">
-        <f>(C186+(D186*1.5)-E186-(F186*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-3.5</v>
       </c>
     </row>
@@ -13966,11 +14914,11 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <f>SUM(C187:G187)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I187">
-        <f>(C187+(D187*1.5)-E187-(F187*1.5))</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
     </row>
@@ -13997,11 +14945,11 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <f>SUM(C188:G188)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I188">
-        <f>(C188+(D188*1.5)-E188-(F188*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-1.5</v>
       </c>
     </row>
@@ -14028,11 +14976,11 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <f>SUM(C189:G189)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I189">
-        <f>(C189+(D189*1.5)-E189-(F189*1.5))</f>
+        <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
     </row>
@@ -14059,11 +15007,11 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <f>SUM(C190:G190)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I190">
-        <f>(C190+(D190*1.5)-E190-(F190*1.5))</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
     </row>
@@ -14090,11 +15038,11 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <f>SUM(C191:G191)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I191">
-        <f>(C191+(D191*1.5)-E191-(F191*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-1.5</v>
       </c>
     </row>
@@ -14121,11 +15069,11 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <f>SUM(C192:G192)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I192">
-        <f>(C192+(D192*1.5)-E192-(F192*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-1.5</v>
       </c>
     </row>
@@ -14152,11 +15100,11 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <f>SUM(C193:G193)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I193">
-        <f>(C193+(D193*1.5)-E193-(F193*1.5))</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
     </row>
@@ -14183,11 +15131,11 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <f>SUM(C194:G194)</f>
+        <f t="shared" ref="H194:H257" si="6">SUM(C194:G194)</f>
         <v>2</v>
       </c>
       <c r="I194">
-        <f>(C194+(D194*1.5)-E194-(F194*1.5))</f>
+        <f t="shared" ref="I194:I233" si="7">(C194+(D194*1.5)-E194-(F194*1.5))</f>
         <v>2.5</v>
       </c>
     </row>
@@ -14214,11 +15162,11 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <f>SUM(C195:G195)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I195">
-        <f>(C195+(D195*1.5)-E195-(F195*1.5))</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
     </row>
@@ -14245,11 +15193,11 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <f>SUM(C196:G196)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I196">
-        <f>(C196+(D196*1.5)-E196-(F196*1.5))</f>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
     </row>
@@ -14276,11 +15224,11 @@
         <v>0</v>
       </c>
       <c r="H197">
-        <f>SUM(C197:G197)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I197">
-        <f>(C197+(D197*1.5)-E197-(F197*1.5))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -14307,11 +15255,11 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <f>SUM(C198:G198)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I198">
-        <f>(C198+(D198*1.5)-E198-(F198*1.5))</f>
+        <f t="shared" si="7"/>
         <v>-2.5</v>
       </c>
     </row>
@@ -14338,11 +15286,11 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <f>SUM(C199:G199)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I199">
-        <f>(C199+(D199*1.5)-E199-(F199*1.5))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -14369,11 +15317,11 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <f>SUM(C200:G200)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I200">
-        <f>(C200+(D200*1.5)-E200-(F200*1.5))</f>
+        <f t="shared" si="7"/>
         <v>-2.5</v>
       </c>
     </row>
@@ -14400,11 +15348,11 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <f>SUM(C201:G201)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I201">
-        <f>(C201+(D201*1.5)-E201-(F201*1.5))</f>
+        <f t="shared" si="7"/>
         <v>-2.5</v>
       </c>
     </row>
@@ -14431,11 +15379,11 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <f>SUM(C202:G202)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I202">
-        <f>(C202+(D202*1.5)-E202-(F202*1.5))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -14462,11 +15410,11 @@
         <v>0</v>
       </c>
       <c r="H203">
-        <f>SUM(C203:G203)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I203">
-        <f>(C203+(D203*1.5)-E203-(F203*1.5))</f>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
     </row>
@@ -14493,11 +15441,11 @@
         <v>0</v>
       </c>
       <c r="H204">
-        <f>SUM(C204:G204)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I204">
-        <f>(C204+(D204*1.5)-E204-(F204*1.5))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -14524,11 +15472,11 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <f>SUM(C205:G205)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I205">
-        <f>(C205+(D205*1.5)-E205-(F205*1.5))</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
     </row>
@@ -14555,11 +15503,11 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <f>SUM(C206:G206)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I206">
-        <f>(C206+(D206*1.5)-E206-(F206*1.5))</f>
+        <f t="shared" si="7"/>
         <v>-2.5</v>
       </c>
     </row>
@@ -14586,11 +15534,11 @@
         <v>0</v>
       </c>
       <c r="H207">
-        <f>SUM(C207:G207)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I207">
-        <f>(C207+(D207*1.5)-E207-(F207*1.5))</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
     </row>
@@ -14617,11 +15565,11 @@
         <v>0</v>
       </c>
       <c r="H208">
-        <f>SUM(C208:G208)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I208">
-        <f>(C208+(D208*1.5)-E208-(F208*1.5))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -14648,11 +15596,11 @@
         <v>0</v>
       </c>
       <c r="H209">
-        <f>SUM(C209:G209)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I209">
-        <f>(C209+(D209*1.5)-E209-(F209*1.5))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -14679,11 +15627,11 @@
         <v>0</v>
       </c>
       <c r="H210">
-        <f>SUM(C210:G210)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I210">
-        <f>(C210+(D210*1.5)-E210-(F210*1.5))</f>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
     </row>
@@ -14710,11 +15658,11 @@
         <v>0</v>
       </c>
       <c r="H211">
-        <f>SUM(C211:G211)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I211">
-        <f>(C211+(D211*1.5)-E211-(F211*1.5))</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
     </row>
@@ -14741,11 +15689,11 @@
         <v>0</v>
       </c>
       <c r="H212">
-        <f>SUM(C212:G212)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I212">
-        <f>(C212+(D212*1.5)-E212-(F212*1.5))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -14772,11 +15720,11 @@
         <v>0</v>
       </c>
       <c r="H213">
-        <f>SUM(C213:G213)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I213">
-        <f>(C213+(D213*1.5)-E213-(F213*1.5))</f>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
     </row>
@@ -14803,11 +15751,11 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <f>SUM(C214:G214)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I214">
-        <f>(C214+(D214*1.5)-E214-(F214*1.5))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -14834,11 +15782,11 @@
         <v>0</v>
       </c>
       <c r="H215">
-        <f>SUM(C215:G215)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I215">
-        <f>(C215+(D215*1.5)-E215-(F215*1.5))</f>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
     </row>
@@ -14865,11 +15813,11 @@
         <v>0</v>
       </c>
       <c r="H216">
-        <f>SUM(C216:G216)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I216">
-        <f>(C216+(D216*1.5)-E216-(F216*1.5))</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
     </row>
@@ -14896,11 +15844,11 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <f>SUM(C217:G217)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I217">
-        <f>(C217+(D217*1.5)-E217-(F217*1.5))</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
     </row>
@@ -14927,11 +15875,11 @@
         <v>0</v>
       </c>
       <c r="H218">
-        <f>SUM(C218:G218)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I218">
-        <f>(C218+(D218*1.5)-E218-(F218*1.5))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -14958,11 +15906,11 @@
         <v>0</v>
       </c>
       <c r="H219">
-        <f>SUM(C219:G219)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I219">
-        <f>(C219+(D219*1.5)-E219-(F219*1.5))</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
     </row>
@@ -14989,11 +15937,11 @@
         <v>0</v>
       </c>
       <c r="H220">
-        <f>SUM(C220:G220)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I220">
-        <f>(C220+(D220*1.5)-E220-(F220*1.5))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -15020,11 +15968,11 @@
         <v>0</v>
       </c>
       <c r="H221">
-        <f>SUM(C221:G221)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I221">
-        <f>(C221+(D221*1.5)-E221-(F221*1.5))</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
     </row>
@@ -15051,11 +15999,11 @@
         <v>0</v>
       </c>
       <c r="H222">
-        <f>SUM(C222:G222)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I222">
-        <f>(C222+(D222*1.5)-E222-(F222*1.5))</f>
+        <f t="shared" si="7"/>
         <v>-1.5</v>
       </c>
     </row>
@@ -15082,11 +16030,11 @@
         <v>0</v>
       </c>
       <c r="H223">
-        <f>SUM(C223:G223)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I223">
-        <f>(C223+(D223*1.5)-E223-(F223*1.5))</f>
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
     </row>
@@ -15113,11 +16061,11 @@
         <v>0</v>
       </c>
       <c r="H224">
-        <f>SUM(C224:G224)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I224">
-        <f>(C224+(D224*1.5)-E224-(F224*1.5))</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
     </row>
@@ -15144,11 +16092,11 @@
         <v>0</v>
       </c>
       <c r="H225">
-        <f>SUM(C225:G225)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I225">
-        <f>(C225+(D225*1.5)-E225-(F225*1.5))</f>
+        <f t="shared" si="7"/>
         <v>-1.5</v>
       </c>
     </row>
@@ -15175,11 +16123,11 @@
         <v>0</v>
       </c>
       <c r="H226">
-        <f>SUM(C226:G226)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I226">
-        <f>(C226+(D226*1.5)-E226-(F226*1.5))</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
     </row>
@@ -15206,11 +16154,11 @@
         <v>0</v>
       </c>
       <c r="H227">
-        <f>SUM(C227:G227)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I227">
-        <f>(C227+(D227*1.5)-E227-(F227*1.5))</f>
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
     </row>
@@ -15237,11 +16185,11 @@
         <v>0</v>
       </c>
       <c r="H228">
-        <f>SUM(C228:G228)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I228">
-        <f>(C228+(D228*1.5)-E228-(F228*1.5))</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
     </row>
@@ -15268,11 +16216,11 @@
         <v>0</v>
       </c>
       <c r="H229">
-        <f>SUM(C229:G229)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I229">
-        <f>(C229+(D229*1.5)-E229-(F229*1.5))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -15299,11 +16247,11 @@
         <v>0</v>
       </c>
       <c r="H230">
-        <f>SUM(C230:G230)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I230">
-        <f>(C230+(D230*1.5)-E230-(F230*1.5))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -15330,11 +16278,11 @@
         <v>0</v>
       </c>
       <c r="H231">
-        <f>SUM(C231:G231)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I231">
-        <f>(C231+(D231*1.5)-E231-(F231*1.5))</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
     </row>
@@ -15361,11 +16309,11 @@
         <v>0</v>
       </c>
       <c r="H232">
-        <f>SUM(C232:G232)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I232">
-        <f>(C232+(D232*1.5)-E232-(F232*1.5))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -15392,11 +16340,11 @@
         <v>0</v>
       </c>
       <c r="H233">
-        <f>SUM(C233:G233)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I233">
-        <f>(C233+(D233*1.5)-E233-(F233*1.5))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
